--- a/exampleProblems/mnova_template.xlsx
+++ b/exampleProblems/mnova_template.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vsmw51\OneDrive - Durham University\projects\programming\2022\python\python\rdkit37\projects\simpleLiquidNMRanalysisVoila\exampleProblems\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://durhamuniversity-my.sharepoint.com/personal/vsmw51_durham_ac_uk/Documents/projects/programming/2022/python/python/rdkit37/projects/simpleNMR/exampleProblems/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_00A1A350F4408A0B74C6EA39254A55E76ED7003F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{163FF07E-3DF0-422B-BA01-A399BBFA715F}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
+    <workbookView xWindow="7275" yWindow="990" windowWidth="20295" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="molecule" sheetId="9" r:id="rId1"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="65">
   <si>
     <t>Name</t>
   </si>
@@ -222,12 +223,15 @@
   </si>
   <si>
     <t>C11H12O</t>
+  </si>
+  <si>
+    <t>smiles</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -650,21 +654,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="38.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -678,10 +688,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -1012,7 +1022,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1386,7 +1396,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:V35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2473,7 +2483,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:V45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3897,7 +3907,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4248,7 +4258,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4540,9 +4550,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4763,27 +4776,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44668820-0664-4E62-A660-376AF03334EF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9421959D-9476-4FEC-BDFE-1367083D3EBE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="f6191221-55a2-427d-afce-6bfcc029a585"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4808,9 +4809,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9421959D-9476-4FEC-BDFE-1367083D3EBE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44668820-0664-4E62-A660-376AF03334EF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="f6191221-55a2-427d-afce-6bfcc029a585"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>